--- a/data/long_bre/P22-Edad-long_bre.xlsx
+++ b/data/long_bre/P22-Edad-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,87</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>47,65%</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,97%</t>
+          <t>-5,97</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>26,2%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-4,91%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-14,72%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 23,47</t>
+          <t>-10,02; 18,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 12,03</t>
+          <t>-15,06; 10,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 164,08</t>
+          <t>-16,06; 16,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-35,43; 50,25</t>
+          <t>-24,95; 14,46</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-30,57; 111,56</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-36,7; 41,5</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-39,82; 88,59</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-50,93; 50,7</t>
         </is>
       </c>
     </row>
@@ -632,27 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,79</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-15,62%</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-12,82%</t>
+          <t>8,05</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-9,93%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-11,65%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-4,01%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>26,76%</t>
         </is>
       </c>
     </row>
@@ -665,22 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 7,24</t>
+          <t>-17,95; 10,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 7,67</t>
+          <t>-19,06; 9,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,33; 21,85</t>
+          <t>-20,06; 16,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,72; 23,91</t>
+          <t>-11,28; 26,82</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-36,63; 31,86</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-38,43; 29,58</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-39,26; 55,05</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-28,21; 136,97</t>
         </is>
       </c>
     </row>
@@ -688,27 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,58%</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>-2,08</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-6,49%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>23,16%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-7,09%</t>
         </is>
       </c>
     </row>
@@ -721,54 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 10,14</t>
+          <t>-14,98; 12,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 19,33</t>
+          <t>-5,96; 19,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 36,66</t>
+          <t>-15,14; 17,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 103,08</t>
+          <t>-23,62; 15,99</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-35,67; 47,44</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-17,51; 94,88</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-36,22; 82,7</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-55,44; 89,65</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 12,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 11,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 61,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,07; 85,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-8,44</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>12,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-15,45%</t>
+          <t>-3,07</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,64%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12,63%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>62,12%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-11,36%</t>
         </is>
       </c>
     </row>
@@ -837,22 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 12,6</t>
+          <t>-10,23; 13,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 3,95</t>
+          <t>-7,24; 11,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-26,74; 35,63</t>
+          <t>0,27; 24,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-36,0; 8,04</t>
+          <t>-24,64; 12,95</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-30,97; 60,54</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-28,43; 83,58</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 199,93</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-55,31; 81,35</t>
         </is>
       </c>
     </row>
@@ -860,27 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>-8,7</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>5,76</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-0,16%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-15,87%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-12,79%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>17,22%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 13,02</t>
+          <t>-12,85; 14,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 16,98</t>
+          <t>-21,73; 3,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,57; 60,65</t>
+          <t>-22,64; 14,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 87,32</t>
+          <t>-21,88; 25,3</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-24,98; 42,32</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-33,91; 7,58</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-41,5; 48,92</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-44,24; 135,46</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,87%</t>
+          <t>-6,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>-2,7</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-5,67%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>24,1%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-17,71%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-6,82%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,83; 7,64</t>
+          <t>-17,92; 9,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 15,62</t>
+          <t>-4,6; 16,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-42,41; 36,03</t>
+          <t>-34,52; 8,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 73,21</t>
+          <t>-28,37; 18,36</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-44,6; 40,99</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-14,53; 82,3</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-59,58; 30,56</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-49,2; 81,24</t>
         </is>
       </c>
     </row>
@@ -976,27 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-8,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-17,75%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 16,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 0,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 57,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 2,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-6,61%</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>11,75</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-3,48%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>22,7%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-11,84%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>51,93%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 9,49</t>
+          <t>-16,05; 8,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 10,12</t>
+          <t>-2,91; 15,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 35,68</t>
+          <t>-13,74; 7,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-23,52; 51,76</t>
+          <t>-0,45; 23,92</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-41,21; 41,08</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-9,4; 70,56</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-34,81; 29,73</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 143,26</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>-7,6</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>-16,83</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>12,46%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-15,73%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>9,64%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-32,98%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 11,55</t>
+          <t>-6,49; 15,77</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 9,76</t>
+          <t>-17,26; 2,21</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 55,17</t>
+          <t>-7,6; 13,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 41,26</t>
+          <t>-30,31; -2,13</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-14,76; 53,7</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-31,9; 4,99</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-16,92; 45,13</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-53,8; -4,89</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-8,66</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-6,18</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-19,74%</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-12,57%</t>
+          <t>5,08</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-10,6%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>19,29%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 1,42</t>
+          <t>-14,23; 6,6</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 2,83</t>
+          <t>-7,82; 9,51</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-36,92; 3,81</t>
+          <t>-10,18; 9,48</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 6,53</t>
+          <t>-8,69; 16,83</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-36,09; 23,07</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-26,27; 50,91</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-27,99; 40,28</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-26,55; 81,61</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,54 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 15,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 11,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 58,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 59,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>5,61</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>13,55%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>11,43%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-3,74%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>21,79%</t>
         </is>
       </c>
     </row>
@@ -1297,22 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 15,87</t>
+          <t>-5,08; 11,3</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 12,85</t>
+          <t>-4,76; 10,46</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 73,61</t>
+          <t>-9,79; 8,85</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 50,27</t>
+          <t>-6,52; 18,4</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-17,67; 56,66</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-15,61; 46,53</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-29,1; 38,47</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-20,49; 100,81</t>
         </is>
       </c>
     </row>
@@ -1320,27 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>-10,71</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-8,32</t>
+          <t>-7,56</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-9,88%</t>
+          <t>-7,34</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-19,71%</t>
+          <t>-2,81</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-23,93%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-15,07%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-16,97%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-7,13%</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 7,78</t>
+          <t>-19,65; -0,81</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 0,68</t>
+          <t>-15,61; 2,28</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-34,52; 24,14</t>
+          <t>-19,9; 2,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 2,27</t>
+          <t>-16,27; 11,19</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-39,63; -1,14</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-28,77; 4,73</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-38,84; 5,72</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-34,06; 38,59</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>-2,8</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>23,97%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>19,37%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>29,98%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-8,03%</t>
         </is>
       </c>
     </row>
@@ -1409,54 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 10,21</t>
+          <t>-2,81; 16,31</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 13,76</t>
+          <t>-3,08; 12,99</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-32,27; 36,22</t>
+          <t>-1,78; 18,31</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 59,74</t>
+          <t>-18,1; 10,27</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-8,76; 62,33</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-11,62; 68,74</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-5,19; 85,16</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-42,34; 37,87</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-16,31%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,50 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-28,28; 8,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 15,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-56,32; 34,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 67,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-5,99%</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-6,76%</t>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-4,89%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-5,3%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 14,51</t>
+          <t>-4,48; 15,84</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 9,77</t>
+          <t>-5,02; 12,35</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-36,17; 50,9</t>
+          <t>-13,67; 9,58</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-32,15; 24,99</t>
+          <t>-16,05; 11,36</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-14,52; 75,61</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-13,61; 47,63</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-42,25; 45,94</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-36,49; 37,83</t>
         </is>
       </c>
     </row>
@@ -1548,27 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>7,83</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-8,6</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-2,21%</t>
+          <t>-8,6</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>-13,97%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-20,43%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-8,24%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-22,14%</t>
         </is>
       </c>
     </row>
@@ -1581,54 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 22,64</t>
+          <t>-15,72; 6,03</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 10,88</t>
+          <t>-18,11; 0,33</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 114,92</t>
+          <t>-16,53; 9,95</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-39,57; 60,05</t>
+          <t>-21,87; 5,97</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-35,36; 18,57</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-38,07; 1,66</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-33,7; 28,67</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-46,89; 20,1</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>10,58</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>15,73%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>15,36%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>44,27%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 6,04</t>
+          <t>-11,73; 11,07</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 7,5</t>
+          <t>-4,6; 12,67</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 24,61</t>
+          <t>-8,63; 16,29</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 29,88</t>
+          <t>-2,35; 23,51</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-28,9; 38,2</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-14,83; 55,11</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-23,94; 64,23</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-8,81; 137,06</t>
         </is>
       </c>
     </row>
@@ -1664,27 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-6,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-6,81%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-14,41%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1697,50 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 2,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-12,01; -2,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 6,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-23,44; -4,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>-5,1</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>-11,51%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>15,78%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>4,17%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>-21,98%</t>
         </is>
       </c>
     </row>
@@ -1753,37 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 6,27</t>
+          <t>-20,02; 8,75</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 7,88</t>
+          <t>-6,41; 17,48</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 21,82</t>
+          <t>-11,0; 14,6</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 33,63</t>
+          <t>-18,74; 11,06</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>-47,55; 33,96</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>-17,42; 70,22</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-37,91; 97,18</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-63,57; 74,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-4,82</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-4,32</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-7,35</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-12,32%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-9,55%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-14,37%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-17,75; 9,72</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-16,0; 7,83</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-24,8; 8,19</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-15,97; 19,75</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-39,1; 30,41</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-30,71; 20,39</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-42,63; 19,76</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-32,45; 59,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>8,6</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>6,37</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>3,98</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>30,63%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>-1,78%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>25,17%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>11,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 22,02</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-11,48; 9,26</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 21,04</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-14,48; 20,38</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-13,51; 101,37</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-37,99; 49,78</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-22,95; 119,39</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-34,72; 80,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>6,72%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>13,16%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-3,36; 6,46</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 7,5</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-4,03; 6,42</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-6,58; 5,97</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-10,8; 25,97</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 30,42</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-13,18; 27,14</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-20,37; 23,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-3,43</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-7,08</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-3,29</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>-2,64</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-8,42%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-15,03%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-7,71%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>-6,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-8,23; 1,47</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-11,45; -2,21</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-9,02; 3,13</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-10,2; 4,26</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-18,63; 4,93</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-22,87; -5,07</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-19,62; 7,85</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-23,3; 12,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>3,46</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>13,6%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 6,43</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 7,48</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-4,66; 7,76</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 8,95</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-10,47; 21,72</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 32,57</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-13,66; 27,88</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-13,44; 32,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P22-Edad-long_bre.xlsx
+++ b/data/long_bre/P22-Edad-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -720,7 +720,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -816,7 +816,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1012,7 +1012,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1108,7 +1108,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1304,7 +1304,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1400,7 +1400,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1596,7 +1596,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1692,7 +1692,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -1888,7 +1888,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -1984,7 +1984,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2180,7 +2180,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2276,7 +2276,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -2472,7 +2472,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -2568,7 +2568,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
